--- a/biology/Botanique/Forêt_de_L'Étang-Salé/Forêt_de_L'Étang-Salé.xlsx
+++ b/biology/Botanique/Forêt_de_L'Étang-Salé/Forêt_de_L'Étang-Salé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_L%27%C3%89tang-Sal%C3%A9</t>
+          <t>Forêt_de_L'Étang-Salé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La forêt de L'Étang-Salé est une forêt départemento-domaniale et domaniale de l'île de La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien. Il s'agit d'un massif littoral de 922 hectares[1] situé dans l'ouest de l'île sur le territoire communal de L'Étang-Salé.  Elle abrite  des filaos, des bois noir des Bas ou des petits tamarins d’Inde ; des actions sont entreprises pour introduire une plus grande biodiversité d'espèces indigènes[2].
-Sa situation périurbaine et littorale et la proximité de la RN1 ont contribué au développement de nombreuses activités de loisirs dans la forêt ou à proximité : golf, parc attraction, parcours de santé, etc[2].
+La forêt de L'Étang-Salé est une forêt départemento-domaniale et domaniale de l'île de La Réunion, département d'outre-mer français dans le sud-ouest de l'océan Indien. Il s'agit d'un massif littoral de 922 hectares situé dans l'ouest de l'île sur le territoire communal de L'Étang-Salé.  Elle abrite  des filaos, des bois noir des Bas ou des petits tamarins d’Inde ; des actions sont entreprises pour introduire une plus grande biodiversité d'espèces indigènes.
+Sa situation périurbaine et littorale et la proximité de la RN1 ont contribué au développement de nombreuses activités de loisirs dans la forêt ou à proximité : golf, parc attraction, parcours de santé, etc.
 Elle fait l'objet depuis la fin de l'année 2005 d'une forte mobilisation des administrés de la commune décidés à empêcher l'extension d'un parcours de golf décidée par le conseil municipal et devant entraîner une déforestation partielle de cet espace protégé.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_L%27%C3%89tang-Sal%C3%A9</t>
+          <t>Forêt_de_L'Étang-Salé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Compléments</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
